--- a/flashcards/Memcode - KS Oeffentliches Recht I - 2. Test (JKU, Austria).xlsx
+++ b/flashcards/Memcode - KS Oeffentliches Recht I - 2. Test (JKU, Austria).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
   <si>
     <t>Question</t>
   </si>
@@ -19,6 +19,30 @@
     <t>Answer</t>
   </si>
   <si>
+    <t>&lt;p&gt;Was ist die Vorstufe der Regierungsvorlage für ein Gesetzgebungsverfahren?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Der Ministerialentwurf &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist formeller vs materieller Gesetztesvorbehalt? &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;formeller&lt;/strong&gt;: Keine inhaltlichen Einschränkungen gegeben. Es zählt &lt;strong&gt;VfGH&lt;/strong&gt; &lt;strong&gt;Kriterien&lt;/strong&gt;: Öffentliches Interesse, Eignung, Verhältnismäßigkeit, -&amp;gt; eventuell auch Wesensgehaltssperre&lt;/li&gt;&lt;li&gt;&lt;strong&gt;materieller&lt;/strong&gt;: Verfassung gibt &lt;strong&gt;inhaltliche Schranken &lt;/strong&gt;für den Eingriff an.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist das Problem mit einer Kompetenzverteilung durch ein &lt;strong&gt;Landes&lt;/strong&gt;verfassungsgesetz?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Die &lt;strong&gt;Kompetenz&lt;/strong&gt;-&lt;strong&gt;Kompetenz &lt;/strong&gt;(zur Änderung der Kompetenzverteilung) liegt &lt;strong&gt;beim Bundesverfassungsgesetzgeber&lt;/strong&gt;.&lt;/li&gt;&lt;li&gt;Gem. Art 99 (1) B-VG haben die Länder nur &lt;strong&gt;relative Verfassungsautonomie&lt;/strong&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Bundesversammlung&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel38" rel="noopener noreferrer" target="_blank" style="color: rgb(105, 122, 180); background-color: rgba(0, 0, 0, 0);"&gt;Art. 38ff B-VG&lt;/a&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Kombination aus NR und BR&lt;/li&gt;&lt;li&gt;Wenige Aufgaben: &lt;strong&gt;Angelobung BP&lt;/strong&gt;, Volksabstimmung zur Absetzung des BP, Kriegserkärung, ...&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
     <t>&lt;p&gt;Wie wird aus dem Bundesgesetzblatt zitiert um in RIS zu suchen? "&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt; "Jahrgang 2018, Teil I, 8. Bundesgesetz, &lt;/span&gt;&lt;span style="background-color: rgb(255, 255, 255); color: rgba(0, 0, 0, 0);"&gt;NR: GP XXVI RV 10 AB 20 S. 9. BR: 9924 S. 876""&lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
@@ -241,12 +265,6 @@
     <t>&lt;ul&gt;&lt;li&gt;Bundesgesetzgebung ( &lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel24" rel="noopener noreferrer" target="_blank" style="color: rgb(136, 125, 220); background-color: rgb(40, 45, 88);"&gt;Art. 24 B-VG&lt;/a&gt; )&lt;/li&gt;&lt;li&gt;hat Präsidium (Präsident, 2. + 3. Präsident - &lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel30" rel="noopener noreferrer" target="_blank"&gt;Art. 30 Abs. 1 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;li&gt;5 Jahre Legislaturperiode&lt;/li&gt;&lt;li&gt;Auflösung durch BP (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel29" rel="noopener noreferrer" target="_blank"&gt;Art. 29 B-VG&lt;/a&gt;) oder Selbstauflösung&lt;/li&gt;&lt;li&gt;aktives Wahlrecht (16), passives Wahlrecht (18)&lt;/li&gt;&lt;li&gt;183 Mitglieder&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Bundesversammlung&lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel38" rel="noopener noreferrer" target="_blank" style="color: rgb(105, 122, 180); background-color: rgba(0, 0, 0, 0);"&gt;Art. 38ff B-VG&lt;/a&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Kombination aus NR und BR&lt;/li&gt;&lt;li&gt;Wenige Aufgaben: &lt;strong&gt;Angelobung BP&lt;/strong&gt;, Volksabstimmung zur Absetzung des BP, Kriegserkärung, ...&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
     <t>&lt;p&gt;Teile des Bundesparlaments&lt;/p&gt;</t>
   </si>
   <si>
@@ -467,66 +485,6 @@
   </si>
   <si>
     <t>&lt;p&gt;Ein &lt;strong&gt;fehlerhafter&lt;/strong&gt; &lt;strong&gt;Rechtsakt gilt vorläufig &lt;/strong&gt;wie ein fehlerfreier Rechtsakt. Erst &lt;strong&gt;bei Anfechtung &lt;/strong&gt;wird er vom zuständigen Kontrollorgan &lt;strong&gt;aufgehoben&lt;/strong&gt;. &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;Verwaltungshandeln: &lt;/span&gt;Maßnahme&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Ausübung unmittelbarer verwaltungsbehördlicher Befehls- und Zwangsgewalt&lt;/li&gt;&lt;li class="ql-indent-1"&gt;individueller Akt direkt auf gesetzlicher Grundlage z.B.: Festnahme&lt;/li&gt;&lt;li&gt;Wird wie Rechtsnorm mit Zwang durchgesetzt.&lt;/li&gt;&lt;li&gt;Anfechtung ungerechter Behandlung nicht möglich (anders als bei individueller Rechtsnorm = Bescheid) → Rechtsschutzlücke → Maßnahmebeschwerde vor Verwaltungsgericht (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel130" rel="noopener noreferrer" target="_blank"&gt;Art. 130 Abs. 1 Z. 1 B-VG&lt;/a&gt;, &lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel132" rel="noopener noreferrer" target="_blank"&gt;Art. 132 Abs. 2 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Verwaltungsverordnung&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Wirkt nach innen, regelt die interne Verwaltungsorganisation&lt;/li&gt;&lt;li&gt;muss nicht kundgemacht werden (Abgrenzung zur Weisung schweirig)&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Rechtsverordnung&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Wirkt nach außen&lt;/li&gt;&lt;li&gt;Legt Rechte und Pflichten für Bürger fest&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Selbständige Verordnung&lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Ergehen unmittelbar aus Bundesverfassung (ohne weitere Gesetze)&lt;/li&gt;&lt;li&gt;Gesetzesergänzend, gesetzesvertretend oder gesetzesändernd.&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="background-color: rgba(0, 0, 0, 0); color: rgb(226, 148, 20);"&gt;Durchführungsverordnung &lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;Präzisiert ein Gesetz (&lt;/span&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel18" rel="noopener noreferrer" target="_blank" style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;Art. 18 Abs. 2 B-VG&lt;/a&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;)&lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Arten von Verordnungen&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Durchführungsverordnung &lt;/span&gt;&lt;/li&gt;&lt;li&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Selbständige Verordnung&lt;/span&gt;&lt;/li&gt;&lt;li&gt;Ortspolizeiliche Verordnung&lt;/li&gt;&lt;li&gt;Rechtsverordnung&lt;/li&gt;&lt;li&gt;Verwaltungsverordnung&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Verwaltungshandeln: Verordnung&lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Verfassungsbegriff (Art. 139 B-VG)&lt;/li&gt;&lt;li&gt;Generelle (abstrakte oder konkrete) Anordnung einer Verwaltungsbehörde&lt;/li&gt;&lt;li&gt;Erst mit Kundmachung gültig&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Arten von Bescheiden&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Leistungsbescheid&lt;/strong&gt;: ordnet Tun oder Unterlassen an, &lt;strong&gt;vollstreckbar&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Gestaltungsbescheid&lt;/strong&gt;: Gestaltet eine Rechtslage neu, &lt;strong&gt;nicht vollstreckbar&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Feststellungsbescheid&lt;/strong&gt;: verbindliche Feststellung einer unklaren Rechtslage, &lt;strong&gt;nicht vollstreckbar&lt;/strong&gt;&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Verwaltungshandeln: Bescheid&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Verfassungsbegriff (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel130" rel="noopener noreferrer" target="_blank"&gt;Art. 130 Abs. 1 B-VG&lt;/a&gt;, &lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel132" rel="noopener noreferrer" target="_blank"&gt;Art. 132 Abs. 1 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;li&gt;3 &lt;strong&gt;konstitutive &lt;/strong&gt;Merkmale (nicht vorhanden: Absolut nichtig)&lt;/li&gt;&lt;li class="ql-indent-1"&gt;es muss eine Verwaltungsbehörde handeln&lt;/li&gt;&lt;li class="ql-indent-1"&gt;es muss an einen individuellen Adressaten gerichtet sein&lt;/li&gt;&lt;li class="ql-indent-1"&gt;es muss eine behördliche Anordnung enthalten&lt;/li&gt;&lt;li&gt;Gesetzgeber kann weitere Merkmale hinzufügen, Auswirkung des Fehlens legt Gesetzgeber fest (z.B.: relativ nichtig)&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Formen des Verwaltungshandelns&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Bescheid&lt;/li&gt;&lt;li&gt;Verordnung&lt;/li&gt;&lt;li&gt;Maßnahme&lt;/li&gt;&lt;li&gt;Schlicht-hoheitliches Handeln&lt;/li&gt;&lt;li&gt;(Verwaltungsrechtlicher Vertrag)&lt;/li&gt;&lt;li&gt;Privatrechtliches Handeln&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;Fehlerkalkül&lt;/p&gt;</t>
@@ -964,7 +922,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B94"/>
+  <dimension ref="A1:B87"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="20" customWidth="1"/>
@@ -1666,62 +1624,6 @@
         <v>173</v>
       </c>
     </row>
-    <row r="88" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
